--- a/data/processed/hyalophane_StA/kraw_summaries.xlsx
+++ b/data/processed/hyalophane_StA/kraw_summaries.xlsx
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>100.01</v>
+        <v>100.03</v>
       </c>
       <c r="F2">
         <v>1.19</v>
@@ -510,22 +510,22 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="I2">
-        <v>100.01</v>
+        <v>100.03</v>
       </c>
       <c r="J2">
         <v>1.18</v>
       </c>
       <c r="K2">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="L2">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M2">
-        <v>7.08</v>
+        <v>7.02</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>100.01</v>
+        <v>100.03</v>
       </c>
       <c r="F3">
         <v>1.16</v>
@@ -554,22 +554,22 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="I3">
-        <v>100.01</v>
+        <v>100.03</v>
       </c>
       <c r="J3">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="K3">
-        <v>6.88</v>
+        <v>6.05</v>
       </c>
       <c r="L3">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M3">
-        <v>7.06</v>
+        <v>6.5</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>100.01</v>
+        <v>100.03</v>
       </c>
       <c r="F4">
         <v>1.25</v>
@@ -598,22 +598,22 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="I4">
-        <v>100.01</v>
+        <v>100.03</v>
       </c>
       <c r="J4">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="K4">
-        <v>6.51</v>
+        <v>7.14</v>
       </c>
       <c r="L4">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="M4">
-        <v>6.7</v>
+        <v>7.53</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>100.01</v>
+        <v>100.03</v>
       </c>
       <c r="F5">
         <v>1.11</v>
@@ -642,22 +642,22 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="I5">
-        <v>100.01</v>
+        <v>100.03</v>
       </c>
       <c r="J5">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K5">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="L5">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M5">
-        <v>6.98</v>
+        <v>8.06</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>100.01</v>
+        <v>100.03</v>
       </c>
       <c r="F6">
         <v>1.12</v>
@@ -686,10 +686,10 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="I6">
-        <v>100.01</v>
+        <v>100.03</v>
       </c>
       <c r="J6">
         <v>1.12</v>
@@ -698,10 +698,10 @@
         <v>6.8</v>
       </c>
       <c r="L6">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M6">
-        <v>6.98</v>
+        <v>7.2</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -739,13 +739,13 @@
         <v>0.4</v>
       </c>
       <c r="K7">
-        <v>7.29</v>
+        <v>6.61</v>
       </c>
       <c r="L7">
         <v>0.42</v>
       </c>
       <c r="M7">
-        <v>7.58</v>
+        <v>6.94</v>
       </c>
       <c r="N7" t="s">
         <v>18</v>
@@ -783,13 +783,13 @@
         <v>0.32</v>
       </c>
       <c r="K8">
-        <v>9.08</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="L8">
         <v>0.33</v>
       </c>
       <c r="M8">
-        <v>9.31</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="N8" t="s">
         <v>19</v>
@@ -827,13 +827,13 @@
         <v>0.34</v>
       </c>
       <c r="K9">
-        <v>9.01</v>
+        <v>9.44</v>
       </c>
       <c r="L9">
         <v>0.36</v>
       </c>
       <c r="M9">
-        <v>9.24</v>
+        <v>9.67</v>
       </c>
       <c r="N9" t="s">
         <v>20</v>
@@ -862,7 +862,7 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="I10">
         <v>100.02</v>
@@ -871,13 +871,13 @@
         <v>0.34</v>
       </c>
       <c r="K10">
-        <v>8.16</v>
+        <v>7.42</v>
       </c>
       <c r="L10">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="M10">
-        <v>8.42</v>
+        <v>7.71</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>0.39</v>
       </c>
       <c r="K11">
-        <v>7.47</v>
+        <v>7.45</v>
       </c>
       <c r="L11">
         <v>0.41</v>
       </c>
       <c r="M11">
-        <v>7.76</v>
+        <v>7.74</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>
